--- a/Mod4/unit4transposeData/products.xlsx
+++ b/Mod4/unit4transposeData/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navya/Desktop/Learning/DataViz/Mod4/unit2loadDataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navya/Desktop/Learning/DataViz/Mod4/unit4transposeData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33916690-6311-0F47-A241-0171CE1CF500}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF0C61-4EED-0844-894A-3ACC362AF799}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{883BD741-4EC5-3149-9EE9-02212F3D3EE5}"/>
   </bookViews>
@@ -95,14 +95,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7B7A44-C4DB-7148-BEAA-BF5F69077E72}" name="TableA" displayName="TableA" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6" xr:uid="{4D9AB503-BDB6-5C4C-A207-6AFAC7BE05DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7B7A44-C4DB-7148-BEAA-BF5F69077E72}" name="TableA" displayName="TableA" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{4D9AB503-BDB6-5C4C-A207-6AFAC7BE05DC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ACBA2DF1-60BD-3747-9826-181C74690BA1}" name="ID"/>
     <tableColumn id="2" xr3:uid="{4E815E51-8EC0-DE4D-B9DF-5A2F4D830920}" name="Product"/>
     <tableColumn id="3" xr3:uid="{D97297EF-347F-FB43-890F-A95DD1E2CB7D}" name="Sales"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -403,23 +403,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E637292B-20B7-4347-AF00-1C88F75E08D7}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -427,21 +438,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,25 +460,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
